--- a/andes/cases/kundur/kundur_ieeest.xlsx
+++ b/andes/cases/kundur/kundur_ieeest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56877F4-88A1-3742-92C1-4FB50A1C538E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D0777-55C2-4145-AFCE-30A5238A16D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30040" windowHeight="24340" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30040" windowHeight="24340" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>uid</t>
   </si>
@@ -354,12 +354,6 @@
   </si>
   <si>
     <t>SE2</t>
-  </si>
-  <si>
-    <t>Ae</t>
-  </si>
-  <si>
-    <t>Be</t>
   </si>
   <si>
     <t>EXDC2_1</t>
@@ -444,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +452,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -496,9 +498,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1305,7 +1310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
@@ -1326,31 +1331,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>88</v>
@@ -1362,28 +1367,28 @@
         <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1397,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1487,13 +1492,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -3742,16 +3747,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3800,37 +3805,31 @@
       <c r="P1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3880,14 +3879,8 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3898,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3948,14 +3941,8 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3966,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4016,14 +4003,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4034,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4082,12 +4063,6 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
         <v>0</v>
       </c>
     </row>

--- a/andes/cases/kundur/kundur_ieeest.xlsx
+++ b/andes/cases/kundur/kundur_ieeest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D0777-55C2-4145-AFCE-30A5238A16D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CD404-B5BC-224E-B0E1-F4D0A4C52936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30040" windowHeight="24340" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3751,7 +3751,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -3998,10 +3998,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -4060,10 +4060,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
